--- a/classfiers/nano/decisionTree/nano-decisionTree-results.xlsx
+++ b/classfiers/nano/decisionTree/nano-decisionTree-results.xlsx
@@ -470,13 +470,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="D2" t="n">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.9473684210526316</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.95</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9743589743589743</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.8947368421052632</v>
       </c>
     </row>
     <row r="4">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.95</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9743589743589743</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9976525821596245</v>
+        <v>0.9740932642487047</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7083333333333334</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7906976744186046</v>
+        <v>0.7333333333333334</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9309364961700025</v>
+        <v>0.7894736842105263</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9316666666666666</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9489473684210527</v>
+        <v>0.8526315789473685</v>
       </c>
       <c r="D7" t="n">
-        <v>0.937356808837837</v>
+        <v>0.8703594771241828</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9857178156659254</v>
+        <v>0.9211344423234251</v>
       </c>
     </row>
   </sheetData>
